--- a/inputs_outputs.xlsx
+++ b/inputs_outputs.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">מיקום לקוח</t>
   </si>
   <si>
-    <t xml:space="preserve">W:\Projects\תכניות מרחביות\דרום_מערב_122\קבצי עבודה\תחזיות_דמוגרפיות</t>
+    <t xml:space="preserve">C:\Users\dpere\Documents\JTMT\Projects\תחזיות_דמוגרפיות\קבצי עבודה\142_מתחם_אנגל\בהת</t>
   </si>
   <si>
     <t xml:space="preserve">שם תרחיש (forecast_version)</t>
   </si>
   <si>
-    <t xml:space="preserve">with_project</t>
+    <t xml:space="preserve">without_project</t>
   </si>
   <si>
     <t xml:space="preserve">v_date</t>
@@ -133,20 +133,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -170,77 +174,77 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>241215</v>
+      <c r="B4" s="4" t="n">
+        <v>240129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
